--- a/outputs/tables/table_llms_merged_range.xlsx
+++ b/outputs/tables/table_llms_merged_range.xlsx
@@ -625,54 +625,54 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>moonshotai_Kimi-K2-Thinking</t>
+          <t>mistral-large-latest</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.51 (0.38 - 0.70) / 0.59 (0.47 - 0.75)</t>
+          <t>0.57 (0.38 - 0.73) / 0.67 (0.48 - 0.82)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.52 (0.45 - 0.64) / 0.62 (0.55 - 0.74)</t>
+          <t>0.51 (0.31 - 0.71) / 0.61 (0.43 - 0.77)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.52 (0.16 - 0.78) / 0.60 (0.25 - 0.87)</t>
+          <t>0.54 (0.25 - 0.75) / 0.64 (0.37 - 0.83)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.56 (0.46 - 0.70) / 0.67 (0.56 - 0.80)</t>
+          <t>0.49 (0.29 - 0.67) / 0.60 (0.41 - 0.75)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mistral-large-latest</t>
+          <t>moonshotai_Kimi-K2-Thinking</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.57 (0.38 - 0.73) / 0.67 (0.48 - 0.82)</t>
+          <t>0.51 (0.38 - 0.70) / 0.59 (0.47 - 0.75)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.51 (0.31 - 0.71) / 0.61 (0.43 - 0.77)</t>
+          <t>0.52 (0.45 - 0.64) / 0.62 (0.55 - 0.74)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.54 (0.25 - 0.75) / 0.64 (0.37 - 0.83)</t>
+          <t>0.52 (0.16 - 0.78) / 0.60 (0.25 - 0.87)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.49 (0.29 - 0.67) / 0.60 (0.41 - 0.75)</t>
+          <t>0.56 (0.46 - 0.70) / 0.67 (0.56 - 0.80)</t>
         </is>
       </c>
     </row>
